--- a/data/processed/AR_Clean_Features.xlsx
+++ b/data/processed/AR_Clean_Features.xlsx
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
@@ -643,7 +643,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
@@ -1008,7 +1008,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
@@ -1214,7 +1214,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
@@ -1473,7 +1473,7 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>
@@ -1524,7 +1524,7 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="K21" t="b">
         <v>0</v>
@@ -1628,7 +1628,7 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="K23" t="b">
         <v>0</v>
@@ -1679,7 +1679,7 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="K24" t="b">
         <v>0</v>
@@ -1730,7 +1730,7 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="K25" t="b">
         <v>0</v>
@@ -1781,7 +1781,7 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="K26" t="b">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="K30" t="b">
         <v>0</v>
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="K31" t="b">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="K32" t="b">
         <v>0</v>
@@ -2197,7 +2197,7 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K34" t="b">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="K35" t="b">
         <v>0</v>
@@ -2458,7 +2458,7 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="K39" t="b">
         <v>0</v>
@@ -2509,7 +2509,7 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="K40" t="b">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="K41" t="b">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="K43" t="b">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="K45" t="b">
         <v>0</v>
@@ -2819,7 +2819,7 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="K46" t="b">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="K47" t="b">
         <v>0</v>
@@ -2974,7 +2974,7 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="K49" t="b">
         <v>0</v>
@@ -3025,7 +3025,7 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="K50" t="b">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="K51" t="b">
         <v>0</v>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="K52" t="b">
         <v>0</v>
@@ -3178,7 +3178,7 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="K53" t="b">
         <v>0</v>
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
@@ -3333,7 +3333,7 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="K56" t="b">
         <v>0</v>
@@ -3384,7 +3384,7 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="K58" t="b">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
@@ -3643,7 +3643,7 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K62" t="b">
         <v>0</v>
@@ -3694,7 +3694,7 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K63" t="b">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="K64" t="b">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="K65" t="b">
         <v>0</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="K66" t="b">
         <v>0</v>
@@ -3898,7 +3898,7 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="K67" t="b">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="K68" t="b">
         <v>0</v>
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="K70" t="b">
         <v>0</v>
@@ -4157,7 +4157,7 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>964</v>
+        <v>968</v>
       </c>
       <c r="K72" t="b">
         <v>0</v>
@@ -4208,7 +4208,7 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="K73" t="b">
         <v>0</v>
@@ -4259,7 +4259,7 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="K74" t="b">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="K75" t="b">
         <v>0</v>
@@ -4361,7 +4361,7 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="K76" t="b">
         <v>0</v>
@@ -4465,7 +4465,7 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="K78" t="b">
         <v>0</v>
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="K79" t="b">
         <v>0</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="K80" t="b">
         <v>0</v>
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="K82" t="b">
         <v>0</v>
@@ -4775,7 +4775,7 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="K84" t="b">
         <v>0</v>
@@ -4826,7 +4826,7 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="K85" t="b">
         <v>0</v>
@@ -4877,7 +4877,7 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="K86" t="b">
         <v>0</v>
@@ -4928,7 +4928,7 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="K87" t="b">
         <v>0</v>
@@ -4979,7 +4979,7 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="K88" t="b">
         <v>0</v>
@@ -5083,7 +5083,7 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="K90" t="b">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="K91" t="b">
         <v>0</v>
@@ -5238,7 +5238,7 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="K93" t="b">
         <v>0</v>
@@ -5289,7 +5289,7 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="K94" t="b">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="K97" t="b">
         <v>0</v>
@@ -5497,7 +5497,7 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="K98" t="b">
         <v>0</v>
@@ -5548,7 +5548,7 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="K99" t="b">
         <v>0</v>
@@ -5599,7 +5599,7 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="K100" t="b">
         <v>0</v>
@@ -5650,7 +5650,7 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="K101" t="b">
         <v>0</v>
@@ -5701,7 +5701,7 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="K102" t="b">
         <v>0</v>
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="K103" t="b">
         <v>0</v>
@@ -5856,7 +5856,7 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="K105" t="b">
         <v>0</v>
@@ -5907,7 +5907,7 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="K106" t="b">
         <v>0</v>
@@ -5958,7 +5958,7 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="K107" t="b">
         <v>0</v>
@@ -6009,7 +6009,7 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="K108" t="b">
         <v>0</v>
@@ -6060,7 +6060,7 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K109" t="b">
         <v>0</v>
@@ -6111,7 +6111,7 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="K110" t="b">
         <v>0</v>
@@ -6162,7 +6162,7 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="K111" t="b">
         <v>0</v>
@@ -6213,7 +6213,7 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K112" t="b">
         <v>0</v>
@@ -6264,7 +6264,7 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="K113" t="b">
         <v>0</v>
@@ -6368,7 +6368,7 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="K115" t="b">
         <v>0</v>
@@ -6419,7 +6419,7 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="K116" t="b">
         <v>0</v>
@@ -6470,7 +6470,7 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K117" t="b">
         <v>0</v>
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="K118" t="b">
         <v>0</v>
@@ -6572,7 +6572,7 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="K119" t="b">
         <v>0</v>
@@ -6729,7 +6729,7 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="K122" t="b">
         <v>0</v>
@@ -6780,7 +6780,7 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="K123" t="b">
         <v>0</v>
@@ -6831,7 +6831,7 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="K124" t="b">
         <v>0</v>
@@ -6935,7 +6935,7 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>943</v>
+        <v>947</v>
       </c>
       <c r="K126" t="b">
         <v>0</v>
@@ -7039,7 +7039,7 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="K128" t="b">
         <v>0</v>
@@ -7090,7 +7090,7 @@
         </is>
       </c>
       <c r="J129" t="n">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="K129" t="b">
         <v>0</v>
@@ -7194,7 +7194,7 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="K131" t="b">
         <v>0</v>
@@ -7298,7 +7298,7 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="K133" t="b">
         <v>0</v>
@@ -7455,7 +7455,7 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="K136" t="b">
         <v>0</v>
@@ -7612,7 +7612,7 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="K139" t="b">
         <v>0</v>
@@ -7716,7 +7716,7 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="K141" t="b">
         <v>0</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K142" t="b">
         <v>0</v>
@@ -7818,7 +7818,7 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="K143" t="b">
         <v>0</v>
@@ -7869,7 +7869,7 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K144" t="b">
         <v>0</v>
@@ -7920,7 +7920,7 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="K145" t="b">
         <v>0</v>
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K146" t="b">
         <v>0</v>
@@ -8022,7 +8022,7 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="K147" t="b">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="K148" t="b">
         <v>0</v>
@@ -8177,7 +8177,7 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K150" t="b">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="K151" t="b">
         <v>0</v>
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="K153" t="b">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="K155" t="b">
         <v>0</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K156" t="b">
         <v>0</v>
@@ -8591,7 +8591,7 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="K158" t="b">
         <v>0</v>
@@ -8695,7 +8695,7 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K160" t="b">
         <v>0</v>
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="K161" t="b">
         <v>0</v>
@@ -8797,7 +8797,7 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K162" t="b">
         <v>0</v>
@@ -8848,7 +8848,7 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>943</v>
+        <v>947</v>
       </c>
       <c r="K163" t="b">
         <v>0</v>
@@ -9058,7 +9058,7 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="K167" t="b">
         <v>0</v>
@@ -9109,7 +9109,7 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="K168" t="b">
         <v>0</v>
@@ -9160,7 +9160,7 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K169" t="b">
         <v>0</v>
@@ -9317,7 +9317,7 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="K172" t="b">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>992</v>
+        <v>996</v>
       </c>
       <c r="K175" t="b">
         <v>0</v>
@@ -9525,7 +9525,7 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K176" t="b">
         <v>0</v>
@@ -9576,7 +9576,7 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K177" t="b">
         <v>0</v>
@@ -9627,7 +9627,7 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="K178" t="b">
         <v>0</v>
@@ -9678,7 +9678,7 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="K179" t="b">
         <v>0</v>
@@ -9729,7 +9729,7 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K180" t="b">
         <v>0</v>
@@ -9886,7 +9886,7 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="K183" t="b">
         <v>0</v>
@@ -9937,7 +9937,7 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="K184" t="b">
         <v>0</v>
@@ -9988,7 +9988,7 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K185" t="b">
         <v>0</v>
@@ -10039,7 +10039,7 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="K186" t="b">
         <v>0</v>
@@ -10090,7 +10090,7 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="K187" t="b">
         <v>0</v>
@@ -10141,7 +10141,7 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>958</v>
+        <v>962</v>
       </c>
       <c r="K188" t="b">
         <v>0</v>
@@ -10192,7 +10192,7 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="K189" t="b">
         <v>0</v>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="K190" t="b">
         <v>0</v>
@@ -10294,7 +10294,7 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="K191" t="b">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="K194" t="b">
         <v>0</v>
@@ -10502,7 +10502,7 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="K195" t="b">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="K198" t="b">
         <v>0</v>
@@ -10763,7 +10763,7 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="K200" t="b">
         <v>0</v>
@@ -10814,7 +10814,7 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>945</v>
+        <v>949</v>
       </c>
       <c r="K201" t="b">
         <v>0</v>
@@ -10865,7 +10865,7 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="K202" t="b">
         <v>0</v>
@@ -10916,7 +10916,7 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K203" t="b">
         <v>0</v>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="K204" t="b">
         <v>0</v>
@@ -11124,7 +11124,7 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="K207" t="b">
         <v>0</v>
@@ -11175,7 +11175,7 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="K208" t="b">
         <v>0</v>
@@ -11226,7 +11226,7 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="K209" t="b">
         <v>0</v>
@@ -11330,7 +11330,7 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K211" t="b">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="K212" t="b">
         <v>0</v>
@@ -11538,7 +11538,7 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="K215" t="b">
         <v>0</v>
@@ -11589,7 +11589,7 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="K216" t="b">
         <v>0</v>
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="K219" t="b">
         <v>0</v>
@@ -11903,7 +11903,7 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="K222" t="b">
         <v>0</v>
@@ -11954,7 +11954,7 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="K223" t="b">
         <v>0</v>
@@ -12005,7 +12005,7 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="K224" t="b">
         <v>0</v>
@@ -12056,7 +12056,7 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="K225" t="b">
         <v>0</v>
@@ -12107,7 +12107,7 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="K226" t="b">
         <v>0</v>
@@ -12158,7 +12158,7 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="K227" t="b">
         <v>0</v>
@@ -12209,7 +12209,7 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="K228" t="b">
         <v>0</v>
@@ -12260,7 +12260,7 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="K229" t="b">
         <v>0</v>
@@ -12417,7 +12417,7 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>938</v>
+        <v>942</v>
       </c>
       <c r="K232" t="b">
         <v>0</v>
@@ -12627,7 +12627,7 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="K236" t="b">
         <v>0</v>
@@ -12678,7 +12678,7 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="K237" t="b">
         <v>0</v>
@@ -12729,7 +12729,7 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="K238" t="b">
         <v>0</v>
@@ -12833,7 +12833,7 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="K240" t="b">
         <v>0</v>
@@ -12937,7 +12937,7 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="K242" t="b">
         <v>0</v>
@@ -13147,7 +13147,7 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="K246" t="b">
         <v>0</v>
@@ -13198,7 +13198,7 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="K247" t="b">
         <v>0</v>
@@ -13249,7 +13249,7 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="K248" t="b">
         <v>0</v>
@@ -13300,7 +13300,7 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="K249" t="b">
         <v>0</v>
@@ -13404,7 +13404,7 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="K251" t="b">
         <v>0</v>
@@ -13455,7 +13455,7 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="K252" t="b">
         <v>0</v>
@@ -13506,7 +13506,7 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="K253" t="b">
         <v>0</v>
@@ -13610,7 +13610,7 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="K255" t="b">
         <v>0</v>
@@ -13661,7 +13661,7 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K256" t="b">
         <v>0</v>
@@ -13712,7 +13712,7 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="K257" t="b">
         <v>0</v>
@@ -13763,7 +13763,7 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="K258" t="b">
         <v>0</v>
@@ -13814,7 +13814,7 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="K259" t="b">
         <v>0</v>
@@ -13918,7 +13918,7 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="K261" t="b">
         <v>0</v>
@@ -14075,7 +14075,7 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="K264" t="b">
         <v>0</v>
@@ -14126,7 +14126,7 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K265" t="b">
         <v>0</v>
@@ -14177,7 +14177,7 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>945</v>
+        <v>949</v>
       </c>
       <c r="K266" t="b">
         <v>0</v>
@@ -14228,7 +14228,7 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="K267" t="b">
         <v>0</v>
@@ -14279,7 +14279,7 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>955</v>
+        <v>959</v>
       </c>
       <c r="K268" t="b">
         <v>0</v>
@@ -14383,7 +14383,7 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="K270" t="b">
         <v>0</v>
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="K272" t="b">
         <v>0</v>
@@ -14538,7 +14538,7 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="K273" t="b">
         <v>0</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="K274" t="b">
         <v>0</v>
@@ -14640,7 +14640,7 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="K275" t="b">
         <v>0</v>
@@ -14691,7 +14691,7 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K276" t="b">
         <v>0</v>
@@ -14848,7 +14848,7 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K279" t="b">
         <v>0</v>
@@ -14899,7 +14899,7 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="K280" t="b">
         <v>0</v>
@@ -15056,7 +15056,7 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>973</v>
+        <v>977</v>
       </c>
       <c r="K283" t="b">
         <v>0</v>
@@ -15107,7 +15107,7 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="K284" t="b">
         <v>0</v>
@@ -15158,7 +15158,7 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="K285" t="b">
         <v>0</v>
@@ -15209,7 +15209,7 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="K286" t="b">
         <v>0</v>
@@ -15260,7 +15260,7 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K287" t="b">
         <v>0</v>
@@ -15311,7 +15311,7 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="K288" t="b">
         <v>0</v>
@@ -15362,7 +15362,7 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="K289" t="b">
         <v>0</v>
@@ -15466,7 +15466,7 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="K291" t="b">
         <v>0</v>
@@ -15517,7 +15517,7 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="K292" t="b">
         <v>0</v>
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K294" t="b">
         <v>0</v>
@@ -15672,7 +15672,7 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="K295" t="b">
         <v>0</v>
@@ -15776,7 +15776,7 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="K297" t="b">
         <v>0</v>
@@ -15827,7 +15827,7 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="K298" t="b">
         <v>0</v>
@@ -15878,7 +15878,7 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>958</v>
+        <v>962</v>
       </c>
       <c r="K299" t="b">
         <v>0</v>
@@ -15929,7 +15929,7 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="K300" t="b">
         <v>0</v>
@@ -15980,7 +15980,7 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="K301" t="b">
         <v>0</v>
@@ -16031,7 +16031,7 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="K302" t="b">
         <v>0</v>
@@ -16135,7 +16135,7 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="K304" t="b">
         <v>0</v>
@@ -16239,7 +16239,7 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>947</v>
+        <v>951</v>
       </c>
       <c r="K306" t="b">
         <v>0</v>
@@ -16290,7 +16290,7 @@
         </is>
       </c>
       <c r="J307" t="n">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="K307" t="b">
         <v>0</v>
@@ -16394,7 +16394,7 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K309" t="b">
         <v>0</v>
@@ -16445,7 +16445,7 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="K310" t="b">
         <v>0</v>
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="J311" t="n">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="K311" t="b">
         <v>0</v>
@@ -16547,7 +16547,7 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K312" t="b">
         <v>0</v>
@@ -16598,7 +16598,7 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K313" t="b">
         <v>0</v>
@@ -16755,7 +16755,7 @@
         </is>
       </c>
       <c r="J316" t="n">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K316" t="b">
         <v>0</v>
@@ -16859,7 +16859,7 @@
         </is>
       </c>
       <c r="J318" t="n">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="K318" t="b">
         <v>0</v>
@@ -16910,7 +16910,7 @@
         </is>
       </c>
       <c r="J319" t="n">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K319" t="b">
         <v>0</v>
@@ -16961,7 +16961,7 @@
         </is>
       </c>
       <c r="J320" t="n">
-        <v>942</v>
+        <v>946</v>
       </c>
       <c r="K320" t="b">
         <v>0</v>
@@ -17065,7 +17065,7 @@
         </is>
       </c>
       <c r="J322" t="n">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="K322" t="b">
         <v>0</v>
@@ -17116,7 +17116,7 @@
         </is>
       </c>
       <c r="J323" t="n">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="K323" t="b">
         <v>0</v>
@@ -17167,7 +17167,7 @@
         </is>
       </c>
       <c r="J324" t="n">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="K324" t="b">
         <v>0</v>
@@ -17218,7 +17218,7 @@
         </is>
       </c>
       <c r="J325" t="n">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="K325" t="b">
         <v>0</v>
@@ -17375,7 +17375,7 @@
         </is>
       </c>
       <c r="J328" t="n">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="K328" t="b">
         <v>0</v>
@@ -17426,7 +17426,7 @@
         </is>
       </c>
       <c r="J329" t="n">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="K329" t="b">
         <v>0</v>
@@ -17477,7 +17477,7 @@
         </is>
       </c>
       <c r="J330" t="n">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K330" t="b">
         <v>0</v>
@@ -17528,7 +17528,7 @@
         </is>
       </c>
       <c r="J331" t="n">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="K331" t="b">
         <v>0</v>
@@ -17579,7 +17579,7 @@
         </is>
       </c>
       <c r="J332" t="n">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="K332" t="b">
         <v>0</v>
@@ -17630,7 +17630,7 @@
         </is>
       </c>
       <c r="J333" t="n">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="K333" t="b">
         <v>0</v>
@@ -17681,7 +17681,7 @@
         </is>
       </c>
       <c r="J334" t="n">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="K334" t="b">
         <v>0</v>
@@ -17732,7 +17732,7 @@
         </is>
       </c>
       <c r="J335" t="n">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K335" t="b">
         <v>0</v>
@@ -17783,7 +17783,7 @@
         </is>
       </c>
       <c r="J336" t="n">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="K336" t="b">
         <v>0</v>
@@ -17940,7 +17940,7 @@
         </is>
       </c>
       <c r="J339" t="n">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="K339" t="b">
         <v>0</v>
@@ -18044,7 +18044,7 @@
         </is>
       </c>
       <c r="J341" t="n">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="K341" t="b">
         <v>0</v>
@@ -18095,7 +18095,7 @@
         </is>
       </c>
       <c r="J342" t="n">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="K342" t="b">
         <v>0</v>
@@ -18252,7 +18252,7 @@
         </is>
       </c>
       <c r="J345" t="n">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="K345" t="b">
         <v>0</v>
@@ -18303,7 +18303,7 @@
         </is>
       </c>
       <c r="J346" t="n">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="K346" t="b">
         <v>0</v>
@@ -18354,7 +18354,7 @@
         </is>
       </c>
       <c r="J347" t="n">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="K347" t="b">
         <v>0</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="J348" t="n">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="K348" t="b">
         <v>0</v>
@@ -18456,7 +18456,7 @@
         </is>
       </c>
       <c r="J349" t="n">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="K349" t="b">
         <v>0</v>
@@ -18507,7 +18507,7 @@
         </is>
       </c>
       <c r="J350" t="n">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="K350" t="b">
         <v>0</v>
@@ -18558,7 +18558,7 @@
         </is>
       </c>
       <c r="J351" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K351" t="b">
         <v>0</v>
@@ -18609,7 +18609,7 @@
         </is>
       </c>
       <c r="J352" t="n">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="K352" t="b">
         <v>0</v>
@@ -18766,7 +18766,7 @@
         </is>
       </c>
       <c r="J355" t="n">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="K355" t="b">
         <v>0</v>
@@ -18817,7 +18817,7 @@
         </is>
       </c>
       <c r="J356" t="n">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="K356" t="b">
         <v>0</v>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="J360" t="n">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="K360" t="b">
         <v>0</v>
@@ -19131,7 +19131,7 @@
         </is>
       </c>
       <c r="J362" t="n">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="K362" t="b">
         <v>0</v>
@@ -19235,7 +19235,7 @@
         </is>
       </c>
       <c r="J364" t="n">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K364" t="b">
         <v>0</v>
@@ -19286,7 +19286,7 @@
         </is>
       </c>
       <c r="J365" t="n">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="K365" t="b">
         <v>0</v>
@@ -19337,7 +19337,7 @@
         </is>
       </c>
       <c r="J366" t="n">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="K366" t="b">
         <v>0</v>
@@ -19547,7 +19547,7 @@
         </is>
       </c>
       <c r="J370" t="n">
-        <v>975</v>
+        <v>979</v>
       </c>
       <c r="K370" t="b">
         <v>0</v>
@@ -19598,7 +19598,7 @@
         </is>
       </c>
       <c r="J371" t="n">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="K371" t="b">
         <v>0</v>
@@ -19649,7 +19649,7 @@
         </is>
       </c>
       <c r="J372" t="n">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K372" t="b">
         <v>0</v>
@@ -19700,7 +19700,7 @@
         </is>
       </c>
       <c r="J373" t="n">
-        <v>992</v>
+        <v>996</v>
       </c>
       <c r="K373" t="b">
         <v>0</v>
@@ -19910,7 +19910,7 @@
         </is>
       </c>
       <c r="J377" t="n">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="K377" t="b">
         <v>0</v>
@@ -20014,7 +20014,7 @@
         </is>
       </c>
       <c r="J379" t="n">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="K379" t="b">
         <v>0</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="J384" t="n">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="K384" t="b">
         <v>0</v>
@@ -20328,7 +20328,7 @@
         </is>
       </c>
       <c r="J385" t="n">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="K385" t="b">
         <v>0</v>
@@ -20379,7 +20379,7 @@
         </is>
       </c>
       <c r="J386" t="n">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="K386" t="b">
         <v>0</v>
@@ -20430,7 +20430,7 @@
         </is>
       </c>
       <c r="J387" t="n">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="K387" t="b">
         <v>0</v>
@@ -20481,7 +20481,7 @@
         </is>
       </c>
       <c r="J388" t="n">
-        <v>973</v>
+        <v>977</v>
       </c>
       <c r="K388" t="b">
         <v>0</v>
@@ -20585,7 +20585,7 @@
         </is>
       </c>
       <c r="J390" t="n">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="K390" t="b">
         <v>0</v>
@@ -20636,7 +20636,7 @@
         </is>
       </c>
       <c r="J391" t="n">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="K391" t="b">
         <v>0</v>
@@ -20740,7 +20740,7 @@
         </is>
       </c>
       <c r="J393" t="n">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="K393" t="b">
         <v>0</v>
@@ -20791,7 +20791,7 @@
         </is>
       </c>
       <c r="J394" t="n">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="K394" t="b">
         <v>0</v>
@@ -20842,7 +20842,7 @@
         </is>
       </c>
       <c r="J395" t="n">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="K395" t="b">
         <v>0</v>
@@ -20893,7 +20893,7 @@
         </is>
       </c>
       <c r="J396" t="n">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="K396" t="b">
         <v>0</v>
@@ -20944,7 +20944,7 @@
         </is>
       </c>
       <c r="J397" t="n">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="K397" t="b">
         <v>0</v>
@@ -20995,7 +20995,7 @@
         </is>
       </c>
       <c r="J398" t="n">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K398" t="b">
         <v>0</v>
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="J399" t="n">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K399" t="b">
         <v>0</v>
@@ -21150,7 +21150,7 @@
         </is>
       </c>
       <c r="J401" t="n">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="K401" t="b">
         <v>0</v>
@@ -21254,7 +21254,7 @@
         </is>
       </c>
       <c r="J403" t="n">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="K403" t="b">
         <v>0</v>
@@ -21411,7 +21411,7 @@
         </is>
       </c>
       <c r="J406" t="n">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="K406" t="b">
         <v>0</v>
@@ -21462,7 +21462,7 @@
         </is>
       </c>
       <c r="J407" t="n">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K407" t="b">
         <v>0</v>
@@ -21513,7 +21513,7 @@
         </is>
       </c>
       <c r="J408" t="n">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="K408" t="b">
         <v>0</v>
@@ -21564,7 +21564,7 @@
         </is>
       </c>
       <c r="J409" t="n">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="K409" t="b">
         <v>0</v>
@@ -21615,7 +21615,7 @@
         </is>
       </c>
       <c r="J410" t="n">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K410" t="b">
         <v>0</v>
@@ -21878,7 +21878,7 @@
         </is>
       </c>
       <c r="J415" t="n">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="K415" t="b">
         <v>0</v>
@@ -21929,7 +21929,7 @@
         </is>
       </c>
       <c r="J416" t="n">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K416" t="b">
         <v>0</v>
@@ -22033,7 +22033,7 @@
         </is>
       </c>
       <c r="J418" t="n">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="K418" t="b">
         <v>0</v>
@@ -22137,7 +22137,7 @@
         </is>
       </c>
       <c r="J420" t="n">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K420" t="b">
         <v>0</v>
@@ -22241,7 +22241,7 @@
         </is>
       </c>
       <c r="J422" t="n">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="K422" t="b">
         <v>0</v>
@@ -22292,7 +22292,7 @@
         </is>
       </c>
       <c r="J423" t="n">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="K423" t="b">
         <v>0</v>
@@ -22502,7 +22502,7 @@
         </is>
       </c>
       <c r="J427" t="n">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="K427" t="b">
         <v>0</v>
@@ -22553,7 +22553,7 @@
         </is>
       </c>
       <c r="J428" t="n">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="K428" t="b">
         <v>0</v>
@@ -22657,7 +22657,7 @@
         </is>
       </c>
       <c r="J430" t="n">
-        <v>983</v>
+        <v>987</v>
       </c>
       <c r="K430" t="b">
         <v>0</v>
@@ -22708,7 +22708,7 @@
         </is>
       </c>
       <c r="J431" t="n">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="K431" t="b">
         <v>0</v>
@@ -22759,7 +22759,7 @@
         </is>
       </c>
       <c r="J432" t="n">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="K432" t="b">
         <v>0</v>
@@ -22810,7 +22810,7 @@
         </is>
       </c>
       <c r="J433" t="n">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K433" t="b">
         <v>0</v>
@@ -22861,7 +22861,7 @@
         </is>
       </c>
       <c r="J434" t="n">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="K434" t="b">
         <v>0</v>
@@ -22912,7 +22912,7 @@
         </is>
       </c>
       <c r="J435" t="n">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="K435" t="b">
         <v>0</v>
@@ -22963,7 +22963,7 @@
         </is>
       </c>
       <c r="J436" t="n">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="K436" t="b">
         <v>0</v>
@@ -23014,7 +23014,7 @@
         </is>
       </c>
       <c r="J437" t="n">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K437" t="b">
         <v>0</v>
@@ -23118,7 +23118,7 @@
         </is>
       </c>
       <c r="J439" t="n">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="K439" t="b">
         <v>0</v>
@@ -23328,7 +23328,7 @@
         </is>
       </c>
       <c r="J443" t="n">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K443" t="b">
         <v>0</v>
@@ -23379,7 +23379,7 @@
         </is>
       </c>
       <c r="J444" t="n">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="K444" t="b">
         <v>0</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="J448" t="n">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="K448" t="b">
         <v>0</v>
@@ -23640,7 +23640,7 @@
         </is>
       </c>
       <c r="J449" t="n">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="K449" t="b">
         <v>0</v>
@@ -23691,7 +23691,7 @@
         </is>
       </c>
       <c r="J450" t="n">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="K450" t="b">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         </is>
       </c>
       <c r="J452" t="n">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="K452" t="b">
         <v>0</v>
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="J453" t="n">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="K453" t="b">
         <v>0</v>
@@ -23897,7 +23897,7 @@
         </is>
       </c>
       <c r="J454" t="n">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="K454" t="b">
         <v>0</v>
@@ -23948,7 +23948,7 @@
         </is>
       </c>
       <c r="J455" t="n">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="K455" t="b">
         <v>0</v>
@@ -23999,7 +23999,7 @@
         </is>
       </c>
       <c r="J456" t="n">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="K456" t="b">
         <v>0</v>
@@ -24050,7 +24050,7 @@
         </is>
       </c>
       <c r="J457" t="n">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="K457" t="b">
         <v>0</v>
@@ -24101,7 +24101,7 @@
         </is>
       </c>
       <c r="J458" t="n">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="K458" t="b">
         <v>0</v>
@@ -24152,7 +24152,7 @@
         </is>
       </c>
       <c r="J459" t="n">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="K459" t="b">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         </is>
       </c>
       <c r="J461" t="n">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="K461" t="b">
         <v>0</v>
@@ -24307,7 +24307,7 @@
         </is>
       </c>
       <c r="J462" t="n">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="K462" t="b">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         </is>
       </c>
       <c r="J464" t="n">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="K464" t="b">
         <v>0</v>
@@ -24568,7 +24568,7 @@
         </is>
       </c>
       <c r="J467" t="n">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="K467" t="b">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         </is>
       </c>
       <c r="J468" t="n">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K468" t="b">
         <v>0</v>
@@ -24670,7 +24670,7 @@
         </is>
       </c>
       <c r="J469" t="n">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="K469" t="b">
         <v>0</v>
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="J470" t="n">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="K470" t="b">
         <v>0</v>
@@ -24878,7 +24878,7 @@
         </is>
       </c>
       <c r="J473" t="n">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="K473" t="b">
         <v>0</v>
@@ -24929,7 +24929,7 @@
         </is>
       </c>
       <c r="J474" t="n">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K474" t="b">
         <v>0</v>
@@ -25033,7 +25033,7 @@
         </is>
       </c>
       <c r="J476" t="n">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="K476" t="b">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         </is>
       </c>
       <c r="J477" t="n">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="K477" t="b">
         <v>0</v>
@@ -25188,7 +25188,7 @@
         </is>
       </c>
       <c r="J479" t="n">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="K479" t="b">
         <v>0</v>
@@ -25239,7 +25239,7 @@
         </is>
       </c>
       <c r="J480" t="n">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="K480" t="b">
         <v>0</v>
@@ -25290,7 +25290,7 @@
         </is>
       </c>
       <c r="J481" t="n">
-        <v>957</v>
+        <v>961</v>
       </c>
       <c r="K481" t="b">
         <v>0</v>
@@ -25394,7 +25394,7 @@
         </is>
       </c>
       <c r="J483" t="n">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="K483" t="b">
         <v>0</v>
@@ -25445,7 +25445,7 @@
         </is>
       </c>
       <c r="J484" t="n">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="K484" t="b">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         </is>
       </c>
       <c r="J487" t="n">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="K487" t="b">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         </is>
       </c>
       <c r="J493" t="n">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="K493" t="b">
         <v>0</v>
@@ -25969,7 +25969,7 @@
         </is>
       </c>
       <c r="J494" t="n">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="K494" t="b">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="J495" t="n">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="K495" t="b">
         <v>0</v>
@@ -26124,7 +26124,7 @@
         </is>
       </c>
       <c r="J497" t="n">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="K497" t="b">
         <v>0</v>
@@ -26175,7 +26175,7 @@
         </is>
       </c>
       <c r="J498" t="n">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="K498" t="b">
         <v>0</v>
@@ -26226,7 +26226,7 @@
         </is>
       </c>
       <c r="J499" t="n">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="K499" t="b">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         </is>
       </c>
       <c r="J502" t="n">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="K502" t="b">
         <v>0</v>
@@ -26434,7 +26434,7 @@
         </is>
       </c>
       <c r="J503" t="n">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="K503" t="b">
         <v>0</v>
@@ -26485,7 +26485,7 @@
         </is>
       </c>
       <c r="J504" t="n">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="K504" t="b">
         <v>0</v>
@@ -26536,7 +26536,7 @@
         </is>
       </c>
       <c r="J505" t="n">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="K505" t="b">
         <v>0</v>
@@ -26640,7 +26640,7 @@
         </is>
       </c>
       <c r="J507" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="K507" t="b">
         <v>0</v>
@@ -26744,7 +26744,7 @@
         </is>
       </c>
       <c r="J509" t="n">
-        <v>983</v>
+        <v>987</v>
       </c>
       <c r="K509" t="b">
         <v>0</v>
@@ -26795,7 +26795,7 @@
         </is>
       </c>
       <c r="J510" t="n">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="K510" t="b">
         <v>0</v>
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="J511" t="n">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="K511" t="b">
         <v>0</v>
@@ -26897,7 +26897,7 @@
         </is>
       </c>
       <c r="J512" t="n">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="K512" t="b">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         </is>
       </c>
       <c r="J514" t="n">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="K514" t="b">
         <v>0</v>
@@ -27105,7 +27105,7 @@
         </is>
       </c>
       <c r="J516" t="n">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="K516" t="b">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         </is>
       </c>
       <c r="J517" t="n">
-        <v>975</v>
+        <v>979</v>
       </c>
       <c r="K517" t="b">
         <v>0</v>
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="J518" t="n">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="K518" t="b">
         <v>0</v>
@@ -27258,7 +27258,7 @@
         </is>
       </c>
       <c r="J519" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="K519" t="b">
         <v>0</v>
@@ -27309,7 +27309,7 @@
         </is>
       </c>
       <c r="J520" t="n">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="K520" t="b">
         <v>0</v>
@@ -27360,7 +27360,7 @@
         </is>
       </c>
       <c r="J521" t="n">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="K521" t="b">
         <v>0</v>
@@ -27411,7 +27411,7 @@
         </is>
       </c>
       <c r="J522" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K522" t="b">
         <v>0</v>
@@ -27462,7 +27462,7 @@
         </is>
       </c>
       <c r="J523" t="n">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="K523" t="b">
         <v>0</v>
@@ -27513,7 +27513,7 @@
         </is>
       </c>
       <c r="J524" t="n">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="K524" t="b">
         <v>0</v>
@@ -27564,7 +27564,7 @@
         </is>
       </c>
       <c r="J525" t="n">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K525" t="b">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="J526" t="n">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="K526" t="b">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="J527" t="n">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="K527" t="b">
         <v>0</v>
@@ -27717,7 +27717,7 @@
         </is>
       </c>
       <c r="J528" t="n">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="K528" t="b">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         </is>
       </c>
       <c r="J530" t="n">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="K530" t="b">
         <v>0</v>
@@ -27872,7 +27872,7 @@
         </is>
       </c>
       <c r="J531" t="n">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="K531" t="b">
         <v>0</v>
@@ -28082,7 +28082,7 @@
         </is>
       </c>
       <c r="J535" t="n">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="K535" t="b">
         <v>0</v>
@@ -28133,7 +28133,7 @@
         </is>
       </c>
       <c r="J536" t="n">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="K536" t="b">
         <v>0</v>
@@ -28184,7 +28184,7 @@
         </is>
       </c>
       <c r="J537" t="n">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="K537" t="b">
         <v>0</v>
@@ -28235,7 +28235,7 @@
         </is>
       </c>
       <c r="J538" t="n">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="K538" t="b">
         <v>0</v>
@@ -28286,7 +28286,7 @@
         </is>
       </c>
       <c r="J539" t="n">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="K539" t="b">
         <v>0</v>
@@ -28337,7 +28337,7 @@
         </is>
       </c>
       <c r="J540" t="n">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="K540" t="b">
         <v>0</v>
@@ -28388,7 +28388,7 @@
         </is>
       </c>
       <c r="J541" t="n">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="K541" t="b">
         <v>0</v>
@@ -28492,7 +28492,7 @@
         </is>
       </c>
       <c r="J543" t="n">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="K543" t="b">
         <v>0</v>
@@ -28543,7 +28543,7 @@
         </is>
       </c>
       <c r="J544" t="n">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="K544" t="b">
         <v>0</v>
@@ -28594,7 +28594,7 @@
         </is>
       </c>
       <c r="J545" t="n">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K545" t="b">
         <v>0</v>
@@ -28698,7 +28698,7 @@
         </is>
       </c>
       <c r="J547" t="n">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="K547" t="b">
         <v>0</v>
@@ -28749,7 +28749,7 @@
         </is>
       </c>
       <c r="J548" t="n">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K548" t="b">
         <v>0</v>
@@ -28800,7 +28800,7 @@
         </is>
       </c>
       <c r="J549" t="n">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="K549" t="b">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         </is>
       </c>
       <c r="J550" t="n">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="K550" t="b">
         <v>0</v>
@@ -28955,7 +28955,7 @@
         </is>
       </c>
       <c r="J552" t="n">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="K552" t="b">
         <v>0</v>
@@ -29006,7 +29006,7 @@
         </is>
       </c>
       <c r="J553" t="n">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="K553" t="b">
         <v>0</v>
@@ -29057,7 +29057,7 @@
         </is>
       </c>
       <c r="J554" t="n">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="K554" t="b">
         <v>0</v>
@@ -29161,7 +29161,7 @@
         </is>
       </c>
       <c r="J556" t="n">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="K556" t="b">
         <v>0</v>
@@ -29265,7 +29265,7 @@
         </is>
       </c>
       <c r="J558" t="n">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="K558" t="b">
         <v>0</v>
@@ -29316,7 +29316,7 @@
         </is>
       </c>
       <c r="J559" t="n">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="K559" t="b">
         <v>0</v>
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="J560" t="n">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="K560" t="b">
         <v>0</v>
@@ -29471,7 +29471,7 @@
         </is>
       </c>
       <c r="J562" t="n">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="K562" t="b">
         <v>0</v>
@@ -29522,7 +29522,7 @@
         </is>
       </c>
       <c r="J563" t="n">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="K563" t="b">
         <v>0</v>
@@ -29573,7 +29573,7 @@
         </is>
       </c>
       <c r="J564" t="n">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="K564" t="b">
         <v>0</v>
@@ -29624,7 +29624,7 @@
         </is>
       </c>
       <c r="J565" t="n">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="K565" t="b">
         <v>0</v>
@@ -29728,7 +29728,7 @@
         </is>
       </c>
       <c r="J567" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K567" t="b">
         <v>0</v>
@@ -29779,7 +29779,7 @@
         </is>
       </c>
       <c r="J568" t="n">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="K568" t="b">
         <v>0</v>
@@ -29830,7 +29830,7 @@
         </is>
       </c>
       <c r="J569" t="n">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="K569" t="b">
         <v>0</v>
@@ -29881,7 +29881,7 @@
         </is>
       </c>
       <c r="J570" t="n">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="K570" t="b">
         <v>0</v>
@@ -29932,7 +29932,7 @@
         </is>
       </c>
       <c r="J571" t="n">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="K571" t="b">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="J572" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K572" t="b">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         </is>
       </c>
       <c r="J573" t="n">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="K573" t="b">
         <v>0</v>
@@ -30138,7 +30138,7 @@
         </is>
       </c>
       <c r="J575" t="n">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="K575" t="b">
         <v>0</v>
@@ -30348,7 +30348,7 @@
         </is>
       </c>
       <c r="J579" t="n">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="K579" t="b">
         <v>0</v>
@@ -30505,7 +30505,7 @@
         </is>
       </c>
       <c r="J582" t="n">
-        <v>987</v>
+        <v>991</v>
       </c>
       <c r="K582" t="b">
         <v>0</v>
@@ -30609,7 +30609,7 @@
         </is>
       </c>
       <c r="J584" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K584" t="b">
         <v>0</v>
@@ -30660,7 +30660,7 @@
         </is>
       </c>
       <c r="J585" t="n">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="K585" t="b">
         <v>0</v>
@@ -30711,7 +30711,7 @@
         </is>
       </c>
       <c r="J586" t="n">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="K586" t="b">
         <v>0</v>
@@ -30815,7 +30815,7 @@
         </is>
       </c>
       <c r="J588" t="n">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="K588" t="b">
         <v>0</v>
@@ -30866,7 +30866,7 @@
         </is>
       </c>
       <c r="J589" t="n">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="K589" t="b">
         <v>0</v>
@@ -30917,7 +30917,7 @@
         </is>
       </c>
       <c r="J590" t="n">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="K590" t="b">
         <v>0</v>
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="J594" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K594" t="b">
         <v>0</v>
@@ -31178,7 +31178,7 @@
         </is>
       </c>
       <c r="J595" t="n">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K595" t="b">
         <v>0</v>
@@ -31229,7 +31229,7 @@
         </is>
       </c>
       <c r="J596" t="n">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="K596" t="b">
         <v>0</v>
@@ -31333,7 +31333,7 @@
         </is>
       </c>
       <c r="J598" t="n">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="K598" t="b">
         <v>0</v>
@@ -31384,7 +31384,7 @@
         </is>
       </c>
       <c r="J599" t="n">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="K599" t="b">
         <v>0</v>
@@ -31435,7 +31435,7 @@
         </is>
       </c>
       <c r="J600" t="n">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="K600" t="b">
         <v>0</v>
@@ -31539,7 +31539,7 @@
         </is>
       </c>
       <c r="J602" t="n">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="K602" t="b">
         <v>0</v>
@@ -31590,7 +31590,7 @@
         </is>
       </c>
       <c r="J603" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="K603" t="b">
         <v>0</v>
@@ -31694,7 +31694,7 @@
         </is>
       </c>
       <c r="J605" t="n">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="K605" t="b">
         <v>0</v>
@@ -31745,7 +31745,7 @@
         </is>
       </c>
       <c r="J606" t="n">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="K606" t="b">
         <v>0</v>
@@ -31796,7 +31796,7 @@
         </is>
       </c>
       <c r="J607" t="n">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K607" t="b">
         <v>0</v>
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="J608" t="n">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="K608" t="b">
         <v>0</v>
@@ -31898,7 +31898,7 @@
         </is>
       </c>
       <c r="J609" t="n">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="K609" t="b">
         <v>0</v>
@@ -31949,7 +31949,7 @@
         </is>
       </c>
       <c r="J610" t="n">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="K610" t="b">
         <v>0</v>
@@ -32000,7 +32000,7 @@
         </is>
       </c>
       <c r="J611" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K611" t="b">
         <v>0</v>
@@ -32051,7 +32051,7 @@
         </is>
       </c>
       <c r="J612" t="n">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="K612" t="b">
         <v>0</v>
@@ -32155,7 +32155,7 @@
         </is>
       </c>
       <c r="J614" t="n">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="K614" t="b">
         <v>0</v>
@@ -32206,7 +32206,7 @@
         </is>
       </c>
       <c r="J615" t="n">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="K615" t="b">
         <v>0</v>
@@ -32257,7 +32257,7 @@
         </is>
       </c>
       <c r="J616" t="n">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="K616" t="b">
         <v>0</v>
@@ -32308,7 +32308,7 @@
         </is>
       </c>
       <c r="J617" t="n">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="K617" t="b">
         <v>0</v>
@@ -32412,7 +32412,7 @@
         </is>
       </c>
       <c r="J619" t="n">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="K619" t="b">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         </is>
       </c>
       <c r="J620" t="n">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="K620" t="b">
         <v>0</v>
@@ -32514,7 +32514,7 @@
         </is>
       </c>
       <c r="J621" t="n">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="K621" t="b">
         <v>0</v>
@@ -32671,7 +32671,7 @@
         </is>
       </c>
       <c r="J624" t="n">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="K624" t="b">
         <v>0</v>
@@ -32775,7 +32775,7 @@
         </is>
       </c>
       <c r="J626" t="n">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="K626" t="b">
         <v>0</v>
@@ -32826,7 +32826,7 @@
         </is>
       </c>
       <c r="J627" t="n">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="K627" t="b">
         <v>0</v>
@@ -32877,7 +32877,7 @@
         </is>
       </c>
       <c r="J628" t="n">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="K628" t="b">
         <v>0</v>
@@ -32981,7 +32981,7 @@
         </is>
       </c>
       <c r="J630" t="n">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="K630" t="b">
         <v>0</v>
@@ -33032,7 +33032,7 @@
         </is>
       </c>
       <c r="J631" t="n">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="K631" t="b">
         <v>0</v>
@@ -33083,7 +33083,7 @@
         </is>
       </c>
       <c r="J632" t="n">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="K632" t="b">
         <v>0</v>
@@ -33134,7 +33134,7 @@
         </is>
       </c>
       <c r="J633" t="n">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="K633" t="b">
         <v>0</v>
@@ -33291,7 +33291,7 @@
         </is>
       </c>
       <c r="J636" t="n">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="K636" t="b">
         <v>0</v>
@@ -33342,7 +33342,7 @@
         </is>
       </c>
       <c r="J637" t="n">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="K637" t="b">
         <v>0</v>
@@ -33393,7 +33393,7 @@
         </is>
       </c>
       <c r="J638" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K638" t="b">
         <v>0</v>
@@ -33444,7 +33444,7 @@
         </is>
       </c>
       <c r="J639" t="n">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="K639" t="b">
         <v>0</v>
@@ -33495,7 +33495,7 @@
         </is>
       </c>
       <c r="J640" t="n">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K640" t="b">
         <v>0</v>
@@ -33546,7 +33546,7 @@
         </is>
       </c>
       <c r="J641" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K641" t="b">
         <v>0</v>
@@ -33597,7 +33597,7 @@
         </is>
       </c>
       <c r="J642" t="n">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K642" t="b">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         </is>
       </c>
       <c r="J643" t="n">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K643" t="b">
         <v>0</v>
@@ -33699,7 +33699,7 @@
         </is>
       </c>
       <c r="J644" t="n">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="K644" t="b">
         <v>0</v>
@@ -33909,7 +33909,7 @@
         </is>
       </c>
       <c r="J648" t="n">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="K648" t="b">
         <v>0</v>
@@ -34013,7 +34013,7 @@
         </is>
       </c>
       <c r="J650" t="n">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="K650" t="b">
         <v>0</v>
@@ -34064,7 +34064,7 @@
         </is>
       </c>
       <c r="J651" t="n">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="K651" t="b">
         <v>0</v>
@@ -34115,7 +34115,7 @@
         </is>
       </c>
       <c r="J652" t="n">
-        <v>987</v>
+        <v>991</v>
       </c>
       <c r="K652" t="b">
         <v>0</v>
@@ -34272,7 +34272,7 @@
         </is>
       </c>
       <c r="J655" t="n">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="K655" t="b">
         <v>0</v>
@@ -34323,7 +34323,7 @@
         </is>
       </c>
       <c r="J656" t="n">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="K656" t="b">
         <v>0</v>
@@ -34374,7 +34374,7 @@
         </is>
       </c>
       <c r="J657" t="n">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="K657" t="b">
         <v>0</v>
@@ -34425,7 +34425,7 @@
         </is>
       </c>
       <c r="J658" t="n">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="K658" t="b">
         <v>0</v>
@@ -34476,7 +34476,7 @@
         </is>
       </c>
       <c r="J659" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K659" t="b">
         <v>0</v>
@@ -34527,7 +34527,7 @@
         </is>
       </c>
       <c r="J660" t="n">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="K660" t="b">
         <v>0</v>
@@ -34578,7 +34578,7 @@
         </is>
       </c>
       <c r="J661" t="n">
-        <v>956</v>
+        <v>960</v>
       </c>
       <c r="K661" t="b">
         <v>0</v>
@@ -34841,7 +34841,7 @@
         </is>
       </c>
       <c r="J666" t="n">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="K666" t="b">
         <v>0</v>
@@ -34892,7 +34892,7 @@
         </is>
       </c>
       <c r="J667" t="n">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="K667" t="b">
         <v>0</v>
@@ -34943,7 +34943,7 @@
         </is>
       </c>
       <c r="J668" t="n">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="K668" t="b">
         <v>0</v>
@@ -35047,7 +35047,7 @@
         </is>
       </c>
       <c r="J670" t="n">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="K670" t="b">
         <v>0</v>
@@ -35204,7 +35204,7 @@
         </is>
       </c>
       <c r="J673" t="n">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="K673" t="b">
         <v>0</v>
@@ -35255,7 +35255,7 @@
         </is>
       </c>
       <c r="J674" t="n">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="K674" t="b">
         <v>0</v>
@@ -35306,7 +35306,7 @@
         </is>
       </c>
       <c r="J675" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K675" t="b">
         <v>0</v>
@@ -35357,7 +35357,7 @@
         </is>
       </c>
       <c r="J676" t="n">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="K676" t="b">
         <v>0</v>
@@ -35461,7 +35461,7 @@
         </is>
       </c>
       <c r="J678" t="n">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="K678" t="b">
         <v>0</v>
@@ -35618,7 +35618,7 @@
         </is>
       </c>
       <c r="J681" t="n">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K681" t="b">
         <v>0</v>
@@ -35669,7 +35669,7 @@
         </is>
       </c>
       <c r="J682" t="n">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="K682" t="b">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         </is>
       </c>
       <c r="J683" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K683" t="b">
         <v>0</v>
@@ -35877,7 +35877,7 @@
         </is>
       </c>
       <c r="J686" t="n">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="K686" t="b">
         <v>0</v>
@@ -35928,7 +35928,7 @@
         </is>
       </c>
       <c r="J687" t="n">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="K687" t="b">
         <v>0</v>
@@ -35979,7 +35979,7 @@
         </is>
       </c>
       <c r="J688" t="n">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K688" t="b">
         <v>0</v>
@@ -36030,7 +36030,7 @@
         </is>
       </c>
       <c r="J689" t="n">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="K689" t="b">
         <v>0</v>
@@ -36081,7 +36081,7 @@
         </is>
       </c>
       <c r="J690" t="n">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="K690" t="b">
         <v>0</v>
@@ -36132,7 +36132,7 @@
         </is>
       </c>
       <c r="J691" t="n">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="K691" t="b">
         <v>0</v>
@@ -36183,7 +36183,7 @@
         </is>
       </c>
       <c r="J692" t="n">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="K692" t="b">
         <v>0</v>
@@ -36234,7 +36234,7 @@
         </is>
       </c>
       <c r="J693" t="n">
-        <v>974</v>
+        <v>978</v>
       </c>
       <c r="K693" t="b">
         <v>0</v>
@@ -36338,7 +36338,7 @@
         </is>
       </c>
       <c r="J695" t="n">
-        <v>973</v>
+        <v>977</v>
       </c>
       <c r="K695" t="b">
         <v>0</v>
@@ -36389,7 +36389,7 @@
         </is>
       </c>
       <c r="J696" t="n">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="K696" t="b">
         <v>0</v>
@@ -36440,7 +36440,7 @@
         </is>
       </c>
       <c r="J697" t="n">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="K697" t="b">
         <v>0</v>
@@ -36491,7 +36491,7 @@
         </is>
       </c>
       <c r="J698" t="n">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="K698" t="b">
         <v>0</v>
@@ -36542,7 +36542,7 @@
         </is>
       </c>
       <c r="J699" t="n">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="K699" t="b">
         <v>0</v>
@@ -36593,7 +36593,7 @@
         </is>
       </c>
       <c r="J700" t="n">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="K700" t="b">
         <v>0</v>
@@ -36644,7 +36644,7 @@
         </is>
       </c>
       <c r="J701" t="n">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="K701" t="b">
         <v>0</v>
@@ -36695,7 +36695,7 @@
         </is>
       </c>
       <c r="J702" t="n">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="K702" t="b">
         <v>0</v>
@@ -36799,7 +36799,7 @@
         </is>
       </c>
       <c r="J704" t="n">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="K704" t="b">
         <v>0</v>
@@ -36903,7 +36903,7 @@
         </is>
       </c>
       <c r="J706" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K706" t="b">
         <v>0</v>
@@ -36954,7 +36954,7 @@
         </is>
       </c>
       <c r="J707" t="n">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="K707" t="b">
         <v>0</v>
@@ -37005,7 +37005,7 @@
         </is>
       </c>
       <c r="J708" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K708" t="b">
         <v>0</v>
@@ -37109,7 +37109,7 @@
         </is>
       </c>
       <c r="J710" t="n">
-        <v>938</v>
+        <v>942</v>
       </c>
       <c r="K710" t="b">
         <v>0</v>
@@ -37160,7 +37160,7 @@
         </is>
       </c>
       <c r="J711" t="n">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="K711" t="b">
         <v>0</v>
@@ -37211,7 +37211,7 @@
         </is>
       </c>
       <c r="J712" t="n">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="K712" t="b">
         <v>0</v>
@@ -37315,7 +37315,7 @@
         </is>
       </c>
       <c r="J714" t="n">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K714" t="b">
         <v>0</v>
@@ -37366,7 +37366,7 @@
         </is>
       </c>
       <c r="J715" t="n">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="K715" t="b">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         </is>
       </c>
       <c r="J717" t="n">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="K717" t="b">
         <v>0</v>
@@ -37574,7 +37574,7 @@
         </is>
       </c>
       <c r="J719" t="n">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="K719" t="b">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         </is>
       </c>
       <c r="J720" t="n">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="K720" t="b">
         <v>0</v>
@@ -37729,7 +37729,7 @@
         </is>
       </c>
       <c r="J722" t="n">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="K722" t="b">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         </is>
       </c>
       <c r="J723" t="n">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="K723" t="b">
         <v>0</v>
@@ -37831,7 +37831,7 @@
         </is>
       </c>
       <c r="J724" t="n">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="K724" t="b">
         <v>0</v>
@@ -37988,7 +37988,7 @@
         </is>
       </c>
       <c r="J727" t="n">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="K727" t="b">
         <v>0</v>
@@ -38039,7 +38039,7 @@
         </is>
       </c>
       <c r="J728" t="n">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="K728" t="b">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         </is>
       </c>
       <c r="J729" t="n">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="K729" t="b">
         <v>0</v>
@@ -38141,7 +38141,7 @@
         </is>
       </c>
       <c r="J730" t="n">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K730" t="b">
         <v>0</v>
@@ -38192,7 +38192,7 @@
         </is>
       </c>
       <c r="J731" t="n">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K731" t="b">
         <v>0</v>
@@ -38296,7 +38296,7 @@
         </is>
       </c>
       <c r="J733" t="n">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="K733" t="b">
         <v>0</v>
@@ -38400,7 +38400,7 @@
         </is>
       </c>
       <c r="J735" t="n">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="K735" t="b">
         <v>0</v>
@@ -38504,7 +38504,7 @@
         </is>
       </c>
       <c r="J737" t="n">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="K737" t="b">
         <v>0</v>
@@ -38555,7 +38555,7 @@
         </is>
       </c>
       <c r="J738" t="n">
-        <v>964</v>
+        <v>968</v>
       </c>
       <c r="K738" t="b">
         <v>0</v>
@@ -38659,7 +38659,7 @@
         </is>
       </c>
       <c r="J740" t="n">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K740" t="b">
         <v>0</v>
@@ -38816,7 +38816,7 @@
         </is>
       </c>
       <c r="J743" t="n">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="K743" t="b">
         <v>0</v>
@@ -38920,7 +38920,7 @@
         </is>
       </c>
       <c r="J745" t="n">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="K745" t="b">
         <v>0</v>
@@ -39024,7 +39024,7 @@
         </is>
       </c>
       <c r="J747" t="n">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K747" t="b">
         <v>0</v>
@@ -39128,7 +39128,7 @@
         </is>
       </c>
       <c r="J749" t="n">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="K749" t="b">
         <v>0</v>
@@ -39179,7 +39179,7 @@
         </is>
       </c>
       <c r="J750" t="n">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K750" t="b">
         <v>0</v>
@@ -39230,7 +39230,7 @@
         </is>
       </c>
       <c r="J751" t="n">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="K751" t="b">
         <v>0</v>
@@ -39281,7 +39281,7 @@
         </is>
       </c>
       <c r="J752" t="n">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="K752" t="b">
         <v>0</v>
@@ -39332,7 +39332,7 @@
         </is>
       </c>
       <c r="J753" t="n">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="K753" t="b">
         <v>0</v>
@@ -39383,7 +39383,7 @@
         </is>
       </c>
       <c r="J754" t="n">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="K754" t="b">
         <v>0</v>
@@ -39434,7 +39434,7 @@
         </is>
       </c>
       <c r="J755" t="n">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="K755" t="b">
         <v>0</v>
@@ -39485,7 +39485,7 @@
         </is>
       </c>
       <c r="J756" t="n">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K756" t="b">
         <v>0</v>
@@ -39589,7 +39589,7 @@
         </is>
       </c>
       <c r="J758" t="n">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="K758" t="b">
         <v>0</v>
@@ -40011,7 +40011,7 @@
         </is>
       </c>
       <c r="J766" t="n">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="K766" t="b">
         <v>0</v>
@@ -40115,7 +40115,7 @@
         </is>
       </c>
       <c r="J768" t="n">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="K768" t="b">
         <v>0</v>
@@ -40166,7 +40166,7 @@
         </is>
       </c>
       <c r="J769" t="n">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="K769" t="b">
         <v>0</v>
@@ -40270,7 +40270,7 @@
         </is>
       </c>
       <c r="J771" t="n">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="K771" t="b">
         <v>0</v>
@@ -40321,7 +40321,7 @@
         </is>
       </c>
       <c r="J772" t="n">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K772" t="b">
         <v>0</v>
@@ -40531,7 +40531,7 @@
         </is>
       </c>
       <c r="J776" t="n">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="K776" t="b">
         <v>0</v>
@@ -40635,7 +40635,7 @@
         </is>
       </c>
       <c r="J778" t="n">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="K778" t="b">
         <v>0</v>
@@ -40686,7 +40686,7 @@
         </is>
       </c>
       <c r="J779" t="n">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K779" t="b">
         <v>0</v>
@@ -40896,7 +40896,7 @@
         </is>
       </c>
       <c r="J783" t="n">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="K783" t="b">
         <v>0</v>
@@ -41000,7 +41000,7 @@
         </is>
       </c>
       <c r="J785" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="K785" t="b">
         <v>0</v>
@@ -41157,7 +41157,7 @@
         </is>
       </c>
       <c r="J788" t="n">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="K788" t="b">
         <v>0</v>
@@ -41261,7 +41261,7 @@
         </is>
       </c>
       <c r="J790" t="n">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="K790" t="b">
         <v>0</v>
@@ -41312,7 +41312,7 @@
         </is>
       </c>
       <c r="J791" t="n">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="K791" t="b">
         <v>0</v>
@@ -41416,7 +41416,7 @@
         </is>
       </c>
       <c r="J793" t="n">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="K793" t="b">
         <v>0</v>
@@ -41467,7 +41467,7 @@
         </is>
       </c>
       <c r="J794" t="n">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="K794" t="b">
         <v>0</v>
@@ -41518,7 +41518,7 @@
         </is>
       </c>
       <c r="J795" t="n">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K795" t="b">
         <v>0</v>
@@ -41569,7 +41569,7 @@
         </is>
       </c>
       <c r="J796" t="n">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="K796" t="b">
         <v>0</v>
@@ -41620,7 +41620,7 @@
         </is>
       </c>
       <c r="J797" t="n">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="K797" t="b">
         <v>0</v>
@@ -41671,7 +41671,7 @@
         </is>
       </c>
       <c r="J798" t="n">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="K798" t="b">
         <v>0</v>
@@ -41722,7 +41722,7 @@
         </is>
       </c>
       <c r="J799" t="n">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="K799" t="b">
         <v>0</v>
@@ -41773,7 +41773,7 @@
         </is>
       </c>
       <c r="J800" t="n">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="K800" t="b">
         <v>0</v>
@@ -41824,7 +41824,7 @@
         </is>
       </c>
       <c r="J801" t="n">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="K801" t="b">
         <v>0</v>
@@ -41981,7 +41981,7 @@
         </is>
       </c>
       <c r="J804" t="n">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="K804" t="b">
         <v>0</v>
@@ -42085,7 +42085,7 @@
         </is>
       </c>
       <c r="J806" t="n">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="K806" t="b">
         <v>0</v>
@@ -42136,7 +42136,7 @@
         </is>
       </c>
       <c r="J807" t="n">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="K807" t="b">
         <v>0</v>
@@ -42293,7 +42293,7 @@
         </is>
       </c>
       <c r="J810" t="n">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="K810" t="b">
         <v>0</v>
@@ -42450,7 +42450,7 @@
         </is>
       </c>
       <c r="J813" t="n">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="K813" t="b">
         <v>0</v>
@@ -42501,7 +42501,7 @@
         </is>
       </c>
       <c r="J814" t="n">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="K814" t="b">
         <v>0</v>
@@ -42552,7 +42552,7 @@
         </is>
       </c>
       <c r="J815" t="n">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="K815" t="b">
         <v>0</v>
@@ -42603,7 +42603,7 @@
         </is>
       </c>
       <c r="J816" t="n">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="K816" t="b">
         <v>0</v>
@@ -42654,7 +42654,7 @@
         </is>
       </c>
       <c r="J817" t="n">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="K817" t="b">
         <v>0</v>
@@ -42705,7 +42705,7 @@
         </is>
       </c>
       <c r="J818" t="n">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="K818" t="b">
         <v>0</v>
@@ -42862,7 +42862,7 @@
         </is>
       </c>
       <c r="J821" t="n">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K821" t="b">
         <v>0</v>
@@ -42913,7 +42913,7 @@
         </is>
       </c>
       <c r="J822" t="n">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="K822" t="b">
         <v>0</v>
@@ -42964,7 +42964,7 @@
         </is>
       </c>
       <c r="J823" t="n">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="K823" t="b">
         <v>0</v>
@@ -43015,7 +43015,7 @@
         </is>
       </c>
       <c r="J824" t="n">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="K824" t="b">
         <v>0</v>
@@ -43066,7 +43066,7 @@
         </is>
       </c>
       <c r="J825" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K825" t="b">
         <v>0</v>
@@ -43117,7 +43117,7 @@
         </is>
       </c>
       <c r="J826" t="n">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="K826" t="b">
         <v>0</v>
@@ -43168,7 +43168,7 @@
         </is>
       </c>
       <c r="J827" t="n">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="K827" t="b">
         <v>0</v>
@@ -43219,7 +43219,7 @@
         </is>
       </c>
       <c r="J828" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K828" t="b">
         <v>0</v>
@@ -43270,7 +43270,7 @@
         </is>
       </c>
       <c r="J829" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K829" t="b">
         <v>0</v>
@@ -43374,7 +43374,7 @@
         </is>
       </c>
       <c r="J831" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K831" t="b">
         <v>0</v>
@@ -43425,7 +43425,7 @@
         </is>
       </c>
       <c r="J832" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="K832" t="b">
         <v>0</v>
@@ -43529,7 +43529,7 @@
         </is>
       </c>
       <c r="J834" t="n">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="K834" t="b">
         <v>0</v>
@@ -43686,7 +43686,7 @@
         </is>
       </c>
       <c r="J837" t="n">
-        <v>985</v>
+        <v>989</v>
       </c>
       <c r="K837" t="b">
         <v>0</v>
@@ -43737,7 +43737,7 @@
         </is>
       </c>
       <c r="J838" t="n">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K838" t="b">
         <v>0</v>
@@ -43788,7 +43788,7 @@
         </is>
       </c>
       <c r="J839" t="n">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="K839" t="b">
         <v>0</v>
@@ -43839,7 +43839,7 @@
         </is>
       </c>
       <c r="J840" t="n">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="K840" t="b">
         <v>0</v>
@@ -43890,7 +43890,7 @@
         </is>
       </c>
       <c r="J841" t="n">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="K841" t="b">
         <v>0</v>
@@ -44047,7 +44047,7 @@
         </is>
       </c>
       <c r="J844" t="n">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K844" t="b">
         <v>0</v>
@@ -44098,7 +44098,7 @@
         </is>
       </c>
       <c r="J845" t="n">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="K845" t="b">
         <v>0</v>
@@ -44149,7 +44149,7 @@
         </is>
       </c>
       <c r="J846" t="n">
-        <v>954</v>
+        <v>958</v>
       </c>
       <c r="K846" t="b">
         <v>0</v>
@@ -44306,7 +44306,7 @@
         </is>
       </c>
       <c r="J849" t="n">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="K849" t="b">
         <v>0</v>
@@ -44357,7 +44357,7 @@
         </is>
       </c>
       <c r="J850" t="n">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="K850" t="b">
         <v>0</v>
@@ -44408,7 +44408,7 @@
         </is>
       </c>
       <c r="J851" t="n">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="K851" t="b">
         <v>0</v>
@@ -44459,7 +44459,7 @@
         </is>
       </c>
       <c r="J852" t="n">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="K852" t="b">
         <v>0</v>
@@ -44510,7 +44510,7 @@
         </is>
       </c>
       <c r="J853" t="n">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="K853" t="b">
         <v>0</v>
@@ -44614,7 +44614,7 @@
         </is>
       </c>
       <c r="J855" t="n">
-        <v>985</v>
+        <v>989</v>
       </c>
       <c r="K855" t="b">
         <v>0</v>
@@ -44665,7 +44665,7 @@
         </is>
       </c>
       <c r="J856" t="n">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K856" t="b">
         <v>0</v>
@@ -44769,7 +44769,7 @@
         </is>
       </c>
       <c r="J858" t="n">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="K858" t="b">
         <v>0</v>
@@ -44873,7 +44873,7 @@
         </is>
       </c>
       <c r="J860" t="n">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="K860" t="b">
         <v>0</v>
@@ -44924,7 +44924,7 @@
         </is>
       </c>
       <c r="J861" t="n">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="K861" t="b">
         <v>0</v>
@@ -44975,7 +44975,7 @@
         </is>
       </c>
       <c r="J862" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K862" t="b">
         <v>0</v>
@@ -45026,7 +45026,7 @@
         </is>
       </c>
       <c r="J863" t="n">
-        <v>968</v>
+        <v>972</v>
       </c>
       <c r="K863" t="b">
         <v>0</v>
@@ -45077,7 +45077,7 @@
         </is>
       </c>
       <c r="J864" t="n">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="K864" t="b">
         <v>0</v>
@@ -45234,7 +45234,7 @@
         </is>
       </c>
       <c r="J867" t="n">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="K867" t="b">
         <v>0</v>
@@ -45285,7 +45285,7 @@
         </is>
       </c>
       <c r="J868" t="n">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="K868" t="b">
         <v>0</v>
@@ -45336,7 +45336,7 @@
         </is>
       </c>
       <c r="J869" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="K869" t="b">
         <v>0</v>
@@ -45387,7 +45387,7 @@
         </is>
       </c>
       <c r="J870" t="n">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="K870" t="b">
         <v>0</v>
@@ -45438,7 +45438,7 @@
         </is>
       </c>
       <c r="J871" t="n">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="K871" t="b">
         <v>0</v>
@@ -45489,7 +45489,7 @@
         </is>
       </c>
       <c r="J872" t="n">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="K872" t="b">
         <v>0</v>
@@ -45540,7 +45540,7 @@
         </is>
       </c>
       <c r="J873" t="n">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="K873" t="b">
         <v>0</v>
@@ -45591,7 +45591,7 @@
         </is>
       </c>
       <c r="J874" t="n">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="K874" t="b">
         <v>0</v>
@@ -45695,7 +45695,7 @@
         </is>
       </c>
       <c r="J876" t="n">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K876" t="b">
         <v>0</v>
@@ -45799,7 +45799,7 @@
         </is>
       </c>
       <c r="J878" t="n">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="K878" t="b">
         <v>0</v>
@@ -45850,7 +45850,7 @@
         </is>
       </c>
       <c r="J879" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="K879" t="b">
         <v>0</v>
@@ -45901,7 +45901,7 @@
         </is>
       </c>
       <c r="J880" t="n">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="K880" t="b">
         <v>0</v>
@@ -45952,7 +45952,7 @@
         </is>
       </c>
       <c r="J881" t="n">
-        <v>963</v>
+        <v>967</v>
       </c>
       <c r="K881" t="b">
         <v>0</v>
@@ -46003,7 +46003,7 @@
         </is>
       </c>
       <c r="J882" t="n">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="K882" t="b">
         <v>0</v>
@@ -46054,7 +46054,7 @@
         </is>
       </c>
       <c r="J883" t="n">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K883" t="b">
         <v>0</v>
@@ -46211,7 +46211,7 @@
         </is>
       </c>
       <c r="J886" t="n">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="K886" t="b">
         <v>0</v>
@@ -46368,7 +46368,7 @@
         </is>
       </c>
       <c r="J889" t="n">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="K889" t="b">
         <v>0</v>
@@ -46472,7 +46472,7 @@
         </is>
       </c>
       <c r="J891" t="n">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="K891" t="b">
         <v>0</v>
@@ -46523,7 +46523,7 @@
         </is>
       </c>
       <c r="J892" t="n">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="K892" t="b">
         <v>0</v>
@@ -46627,7 +46627,7 @@
         </is>
       </c>
       <c r="J894" t="n">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="K894" t="b">
         <v>0</v>
@@ -46678,7 +46678,7 @@
         </is>
       </c>
       <c r="J895" t="n">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K895" t="b">
         <v>0</v>
@@ -46782,7 +46782,7 @@
         </is>
       </c>
       <c r="J897" t="n">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="K897" t="b">
         <v>0</v>
@@ -46939,7 +46939,7 @@
         </is>
       </c>
       <c r="J900" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K900" t="b">
         <v>0</v>
